--- a/schools_terms.xlsx
+++ b/schools_terms.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsore\Documents\GitHub\TX-Prediction-GUI-Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtien/Documents/GitHub/TX-Prediction-GUI-Backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A691C39-3AF8-4AAC-A973-CF30E8FD7A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA79017-0AA6-A54C-98AB-5464DBAC19F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{50394BF3-E4D8-492B-829E-E78538CDBE5F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{50394BF3-E4D8-492B-829E-E78538CDBE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="1" r:id="rId1"/>
     <sheet name="terms" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Whitman</t>
-  </si>
-  <si>
-    <t>UT Austin</t>
   </si>
   <si>
     <t>name</t>
@@ -38,19 +47,10 @@
     <t>whitman.edu</t>
   </si>
   <si>
-    <t>utaustin.edu</t>
-  </si>
-  <si>
     <t>Spring 24</t>
   </si>
   <si>
     <t>Spring 25</t>
-  </si>
-  <si>
-    <t>SP 24a</t>
-  </si>
-  <si>
-    <t>SP 24b</t>
   </si>
 </sst>
 </file>
@@ -897,36 +897,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7DD81-217B-4844-BB94-89E7469D36ED}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -938,20 +934,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB989C5-AF61-4047-8D3A-77F71A247FE9}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
         <v>Whitman</v>
       </c>
-      <c r="B1" t="str">
-        <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
-        <v>UT Austin</v>
+      <c r="B1">
+        <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
+        <v>0</v>
       </c>
       <c r="C1">
         <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
@@ -1050,20 +1049,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/schools_terms.xlsx
+++ b/schools_terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtien/Documents/GitHub/TX-Prediction-GUI-Backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA79017-0AA6-A54C-98AB-5464DBAC19F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357D44F-51BC-2D41-93F7-7087815CB891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{50394BF3-E4D8-492B-829E-E78538CDBE5F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{50394BF3-E4D8-492B-829E-E78538CDBE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Whitman</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Spring 25</t>
+  </si>
+  <si>
+    <t>Spring 25- Tuesday</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7DD81-217B-4844-BB94-89E7469D36ED}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -932,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB989C5-AF61-4047-8D3A-77F71A247FE9}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1059,6 +1062,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schools_terms.xlsx
+++ b/schools_terms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsore\Documents\GitHub\TX-Prediction-GUI-Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A691C39-3AF8-4AAC-A973-CF30E8FD7A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69009BFE-64EE-45D9-B38F-DCDA85D11D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{50394BF3-E4D8-492B-829E-E78538CDBE5F}"/>
   </bookViews>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Whitman</t>
-  </si>
-  <si>
-    <t>UT Austin</t>
   </si>
   <si>
     <t>name</t>
@@ -38,19 +35,10 @@
     <t>whitman.edu</t>
   </si>
   <si>
-    <t>utaustin.edu</t>
-  </si>
-  <si>
     <t>Spring 24</t>
   </si>
   <si>
     <t>Spring 25</t>
-  </si>
-  <si>
-    <t>SP 24a</t>
-  </si>
-  <si>
-    <t>SP 24b</t>
   </si>
 </sst>
 </file>
@@ -897,20 +885,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E7DD81-217B-4844-BB94-89E7469D36ED}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,15 +906,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +919,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,9 +929,9 @@
         <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
         <v>Whitman</v>
       </c>
-      <c r="B1" t="str">
-        <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
-        <v>UT Austin</v>
+      <c r="B1">
+        <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
+        <v>0</v>
       </c>
       <c r="C1">
         <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
@@ -1052,18 +1032,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/schools_terms.xlsx
+++ b/schools_terms.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsore\Documents\GitHub\TX-Prediction-GUI-Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shultzpa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69009BFE-64EE-45D9-B38F-DCDA85D11D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D5FE0-64F6-7441-A79A-5A857542F352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{50394BF3-E4D8-492B-829E-E78538CDBE5F}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{50394BF3-E4D8-492B-829E-E78538CDBE5F}"/>
   </bookViews>
   <sheets>
     <sheet name="schools" sheetId="1" r:id="rId1"/>
     <sheet name="terms" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Whitman</t>
   </si>
@@ -39,6 +52,9 @@
   </si>
   <si>
     <t>Spring 25</t>
+  </si>
+  <si>
+    <t>Fall 25</t>
   </si>
 </sst>
 </file>
@@ -589,9 +605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +645,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +751,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +893,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,9 +907,9 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -901,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -916,15 +932,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB989C5-AF61-4047-8D3A-77F71A247FE9}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>INDEX(schools!$A:$A, COLUMN()+1)</f>
         <v>Whitman</v>
@@ -1030,14 +1046,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
